--- a/asset/users_owners.xlsx
+++ b/asset/users_owners.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t xml:space="preserve">nationalCode</t>
   </si>
@@ -183,17 +183,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
   </cols>
@@ -451,6 +451,20 @@
       </c>
       <c r="D18" s="0" t="n">
         <v>7777</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3333</v>
       </c>
     </row>
   </sheetData>
